--- a/_content/john-abbott-college/computerized-systems/lectures/10-advanced-graphs-and-equations/excels/2024-10-10-class-acitvity.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/10-advanced-graphs-and-equations/excels/2024-10-10-class-acitvity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/10-advanced-graphs-and-equations/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F9BA25-AC7D-334A-BC1E-AFF8E190D325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CA2FB3-5E00-F44B-82A3-7A19DAD18B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="640" windowWidth="27200" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="880" windowWidth="27200" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" compressed tablets" sheetId="7" r:id="rId1"/>
@@ -1466,12 +1466,12 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="5.83203125" customWidth="1"/>
+    <col min="1" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
